--- a/test_cases/TC-2/PE-16.xlsx
+++ b/test_cases/TC-2/PE-16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C83D9-C0C4-420B-A251-961FA03C8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54897905-8D58-4867-8C35-DE17302859C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Tener un e-mail y usuario no registrado</t>
   </si>
   <si>
-    <t>Tener un e-mail ya asociado con un usuario</t>
-  </si>
-  <si>
     <t>Completar el formulario completando todos los datos obligatorios y no obligatorios</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>L_Name = sanches</t>
-  </si>
-  <si>
     <t>F_Name = carlos</t>
   </si>
   <si>
@@ -135,32 +129,71 @@
     <t>Country = US</t>
   </si>
   <si>
-    <t>Adsres2 = 218</t>
-  </si>
-  <si>
-    <t>ZipCode = 440</t>
-  </si>
-  <si>
-    <t>Phone Number = 1229</t>
-  </si>
-  <si>
     <t>Test Case Titulo</t>
   </si>
   <si>
+    <t>User e-mail no asociado = carlos@gmail.com</t>
+  </si>
+  <si>
+    <t>User e-mail ya asociado = pepe@gmail.com</t>
+  </si>
+  <si>
+    <t>User password = 5677</t>
+  </si>
+  <si>
+    <t>Adsres2 = 215</t>
+  </si>
+  <si>
+    <t>Phone Number = 1227</t>
+  </si>
+  <si>
+    <t>DOB = 12/12/93</t>
+  </si>
+  <si>
     <t>PE-16
-Crear una Cuenta</t>
-  </si>
-  <si>
-    <t>TC-2</t>
-  </si>
-  <si>
-    <t>User e-mail no asociado = carlos@gmail.com</t>
-  </si>
-  <si>
-    <t>User password = 5679</t>
-  </si>
-  <si>
-    <t>User e-mail ya asociado = pepe@gmail.com</t>
+Crear una Cuenta 1</t>
+  </si>
+  <si>
+    <t>PE-16
+Crear una Cuenta 2</t>
+  </si>
+  <si>
+    <t>TC-2-2</t>
+  </si>
+  <si>
+    <t>TC-2-1</t>
+  </si>
+  <si>
+    <t>DOB = 12/12/95</t>
+  </si>
+  <si>
+    <t>Company = Claro</t>
+  </si>
+  <si>
+    <t>Extra Info = soy padre</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>TC-2-3</t>
+  </si>
+  <si>
+    <t>TC-2-4</t>
+  </si>
+  <si>
+    <t>PE-16
+Intentar crear una cuenta con un email ya usado</t>
+  </si>
+  <si>
+    <t>Tener un e-mail ya registrado</t>
+  </si>
+  <si>
+    <t>User password = 1234</t>
+  </si>
+  <si>
+    <t>PE-16
+Crear una Cuenta Fallo</t>
   </si>
 </sst>
 </file>
@@ -214,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,12 +360,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -355,14 +401,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -375,44 +457,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,8 +493,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>525576</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>415034</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -750,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,15 +826,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="24" t="s">
-        <v>29</v>
+      <c r="G2" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,399 +845,653 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="18" t="s">
-        <v>44</v>
+      <c r="G3" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>40</v>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="18" t="s">
-        <v>42</v>
+      <c r="G5" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="18"/>
+      <c r="G6" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="20"/>
-      <c r="G7" s="25" t="s">
-        <v>43</v>
+      <c r="B7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="G7" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="25" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="G24" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="18"/>
+      <c r="G25" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="17"/>
+      <c r="G26" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="25" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="25" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="13"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="G47" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="18"/>
+      <c r="G48" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="21"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="29"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
+        <v>4</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="G61" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="20"/>
+      <c r="C62" s="18"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="21"/>
+      <c r="C63" s="17"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="8">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="25"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
+  <mergeCells count="36">
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
